--- a/output/results_2023-08-08/scenario_2018_ind_lin_time/ind_product_amount_forecast.xlsx
+++ b/output/results_2023-08-08/scenario_2018_ind_lin_time/ind_product_amount_forecast.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8643.172176001659</v>
+        <v>8643.172176001777</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5367.168585734815</v>
+        <v>5367.168585734888</v>
       </c>
     </row>
     <row r="5">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.798300008663</v>
+        <v>101.798300008673</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43963.18090595415</v>
+        <v>43963.1809059542</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.584225446573</v>
+        <v>106.584225446575</v>
       </c>
     </row>
     <row r="8">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1656.507047279464</v>
+        <v>1656.507047279473</v>
       </c>
     </row>
     <row r="9">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17832.77822865163</v>
+        <v>17832.77822865171</v>
       </c>
     </row>
     <row r="10">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28435.77126603564</v>
+        <v>28435.77126603566</v>
       </c>
     </row>
     <row r="13">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>274.920571822117</v>
+        <v>274.920571822119</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1370.644522260065</v>
+        <v>1370.644522260132</v>
       </c>
     </row>
     <row r="15">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1337.624605516262</v>
+        <v>1337.624605516279</v>
       </c>
     </row>
     <row r="16">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7864.865633735049</v>
+        <v>7864.865633735079</v>
       </c>
     </row>
     <row r="18">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7898.876902188968</v>
+        <v>7898.8769021891</v>
       </c>
     </row>
     <row r="19">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3693.250312163901</v>
+        <v>3693.250312163935</v>
       </c>
     </row>
     <row r="21">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>616.873840556745</v>
+        <v>616.873840556747</v>
       </c>
     </row>
     <row r="22">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4379.103051201091</v>
+        <v>4379.103051201111</v>
       </c>
     </row>
     <row r="23">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5175.208403065089</v>
+        <v>5175.208403065099</v>
       </c>
     </row>
     <row r="25">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8834.896224638927</v>
+        <v>8834.896224639042</v>
       </c>
     </row>
     <row r="26">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>536.692449012134</v>
+        <v>536.6924490121251</v>
       </c>
     </row>
     <row r="27">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1566.390860882111</v>
+        <v>1566.390860882103</v>
       </c>
     </row>
     <row r="28">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.003400608945</v>
+        <v>104.003400608947</v>
       </c>
     </row>
     <row r="29">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>218.49876556921</v>
+        <v>218.498765569211</v>
       </c>
     </row>
     <row r="30">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>291.783358263291</v>
+        <v>291.783358263293</v>
       </c>
     </row>
     <row r="31">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>832.742972066541</v>
+        <v>832.742972066548</v>
       </c>
     </row>
     <row r="32">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2332.318409442767</v>
+        <v>2332.318409442817</v>
       </c>
     </row>
     <row r="3">
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.851293250237</v>
+        <v>314.851293250241</v>
       </c>
     </row>
     <row r="4">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>935.61229051383</v>
+        <v>935.612290513839</v>
       </c>
     </row>
     <row r="5">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>497.467271157959</v>
+        <v>497.467271157967</v>
       </c>
     </row>
     <row r="6">
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24465.76017775933</v>
+        <v>24465.76017775962</v>
       </c>
     </row>
     <row r="7">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.75820252156</v>
+        <v>15.758202521558</v>
       </c>
     </row>
     <row r="8">
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>624.967952917922</v>
+        <v>624.967952917934</v>
       </c>
     </row>
     <row r="9">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6965.49943872619</v>
+        <v>6965.499438726271</v>
       </c>
     </row>
     <row r="10">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10063.23166445086</v>
+        <v>10063.231664451</v>
       </c>
     </row>
     <row r="11">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>446.797380659155</v>
+        <v>446.797380659159</v>
       </c>
     </row>
     <row r="12">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10371.45003553308</v>
+        <v>10371.45003553334</v>
       </c>
     </row>
     <row r="13">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.32500309221</v>
+        <v>7.325003092209</v>
       </c>
     </row>
     <row r="15">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>620.55459592261</v>
+        <v>620.554595922618</v>
       </c>
     </row>
     <row r="16">
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3524.576841810098</v>
+        <v>3524.576841810143</v>
       </c>
     </row>
     <row r="17">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5962.850107610536</v>
+        <v>5962.850107610659</v>
       </c>
     </row>
     <row r="18">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3630.075733826942</v>
+        <v>3630.075733827009</v>
       </c>
     </row>
     <row r="19">
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2001.224476131192</v>
+        <v>2001.224476131228</v>
       </c>
     </row>
     <row r="20">
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>816.287813360627</v>
+        <v>816.287813360642</v>
       </c>
     </row>
     <row r="22">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>850.434775106491</v>
+        <v>850.434775106496</v>
       </c>
     </row>
     <row r="23">
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14029.40231255837</v>
+        <v>14029.4023125586</v>
       </c>
     </row>
     <row r="24">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13596.41999145584</v>
+        <v>13596.41999145598</v>
       </c>
     </row>
     <row r="25">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5075.74420725061</v>
+        <v>5075.744207250606</v>
       </c>
     </row>
     <row r="26">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2050.152963074136</v>
+        <v>2050.152963074148</v>
       </c>
     </row>
     <row r="27">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1853.718704281163</v>
+        <v>1853.718704281185</v>
       </c>
     </row>
     <row r="28">
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.600914779547</v>
+        <v>110.600914779548</v>
       </c>
     </row>
     <row r="35">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>73.356796506661</v>
+        <v>73.35679650666199</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7939.61108335773</v>
+        <v>7939.61108335776</v>
       </c>
     </row>
     <row r="3">
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2469.483785176341</v>
+        <v>2469.483785176348</v>
       </c>
     </row>
     <row r="4">
@@ -3829,7 +3829,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4451.14757248859</v>
+        <v>4451.14757248858</v>
       </c>
     </row>
     <row r="5">
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1970.723873813053</v>
+        <v>1970.723873813043</v>
       </c>
     </row>
     <row r="6">
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30963.77801498025</v>
+        <v>30963.77801497997</v>
       </c>
     </row>
     <row r="7">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3257.877903518929</v>
+        <v>3257.877903518963</v>
       </c>
     </row>
     <row r="8">
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13739.71524686893</v>
+        <v>13739.71524686911</v>
       </c>
     </row>
     <row r="9">
@@ -3879,7 +3879,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35753.06905103301</v>
+        <v>35753.06905103342</v>
       </c>
     </row>
     <row r="10">
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17396.52288584501</v>
+        <v>17396.5228858449</v>
       </c>
     </row>
     <row r="11">
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3035.14066108615</v>
+        <v>3035.140661086186</v>
       </c>
     </row>
     <row r="12">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35856.71396973806</v>
+        <v>35856.71396973823</v>
       </c>
     </row>
     <row r="13">
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.000032006632</v>
+        <v>655.000032006642</v>
       </c>
     </row>
     <row r="14">
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1305.059191749571</v>
+        <v>1305.059191749601</v>
       </c>
     </row>
     <row r="15">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2810.44791143347</v>
+        <v>2810.447911433479</v>
       </c>
     </row>
     <row r="16">
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2613.097750148912</v>
+        <v>2613.097750148882</v>
       </c>
     </row>
     <row r="17">
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15871.36905917128</v>
+        <v>15871.36905917135</v>
       </c>
     </row>
     <row r="19">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8911.149632672514</v>
+        <v>8911.149632672692</v>
       </c>
     </row>
     <row r="20">
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7281.187464658829</v>
+        <v>7281.187464658819</v>
       </c>
     </row>
     <row r="21">
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1258.80415316928</v>
+        <v>1258.804153169291</v>
       </c>
     </row>
     <row r="22">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3514.868711772868</v>
+        <v>3514.868711772877</v>
       </c>
     </row>
     <row r="23">
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1176.959606279971</v>
+        <v>1176.959606279961</v>
       </c>
     </row>
     <row r="24">
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2246.437134526116</v>
+        <v>2246.437134526072</v>
       </c>
     </row>
     <row r="25">
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9232.884170251464</v>
+        <v>9232.884170251291</v>
       </c>
     </row>
     <row r="26">
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1651.530363514441</v>
+        <v>1651.530363514431</v>
       </c>
     </row>
     <row r="27">
@@ -4059,7 +4059,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4504.237297023704</v>
+        <v>4504.237297023667</v>
       </c>
     </row>
     <row r="28">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>890.1393327228579</v>
+        <v>890.139332722869</v>
       </c>
     </row>
     <row r="30">
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1310.888061798856</v>
+        <v>1310.888061798871</v>
       </c>
     </row>
     <row r="31">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2402.924032639848</v>
+        <v>2402.92403263987</v>
       </c>
     </row>
     <row r="32">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>866.830399316274</v>
+        <v>866.830399316283</v>
       </c>
     </row>
     <row r="33">
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60.901253993943</v>
+        <v>60.901253993933</v>
       </c>
     </row>
     <row r="34">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>775.176626879212</v>
+        <v>775.176626879202</v>
       </c>
     </row>
     <row r="35">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>544.8806100204069</v>
+        <v>544.880610020413</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.004127193131</v>
+        <v>662.004127193136</v>
       </c>
     </row>
     <row r="7">
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.063041234873</v>
+        <v>177.063041234875</v>
       </c>
     </row>
     <row r="9">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>473.216400720631</v>
+        <v>473.216400720638</v>
       </c>
     </row>
     <row r="10">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.557427367993</v>
+        <v>134.557427367992</v>
       </c>
     </row>
     <row r="13">
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.575971353252</v>
+        <v>7.575971353251</v>
       </c>
     </row>
     <row r="16">
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.763069086367</v>
+        <v>11.763069086365</v>
       </c>
     </row>
     <row r="19">
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>256.195081795708</v>
+        <v>256.195081795707</v>
       </c>
     </row>
     <row r="21">
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.866025584016</v>
+        <v>161.866025584018</v>
       </c>
     </row>
     <row r="23">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.106385368702</v>
+        <v>138.106385368704</v>
       </c>
     </row>
     <row r="25">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>283.001100939107</v>
+        <v>283.001100939111</v>
       </c>
     </row>
     <row r="26">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1589.387566298373</v>
+        <v>1589.387566298396</v>
       </c>
     </row>
     <row r="27">
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.661146312109</v>
+        <v>3.661146312107</v>
       </c>
     </row>
     <row r="28">
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>140.861197518896</v>
+        <v>140.861197518894</v>
       </c>
     </row>
     <row r="33">
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.838990998133</v>
+        <v>280.838990998139</v>
       </c>
     </row>
     <row r="4">
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>321.455611084764</v>
+        <v>321.455611084771</v>
       </c>
     </row>
     <row r="10">
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>578.241128857101</v>
+        <v>578.24112885711</v>
       </c>
     </row>
     <row r="19">
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>195.134350946574</v>
+        <v>195.134350946576</v>
       </c>
     </row>
     <row r="24">
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>199.670118339496</v>
+        <v>199.670118339501</v>
       </c>
     </row>
     <row r="25">
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.689812663246</v>
+        <v>7.689812663245</v>
       </c>
     </row>
     <row r="27">
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.838145102214</v>
+        <v>24.838145102211</v>
       </c>
     </row>
     <row r="32">
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.630398935244</v>
+        <v>160.630398935245</v>
       </c>
     </row>
     <row r="3">
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.582713060677</v>
+        <v>44.582713060679</v>
       </c>
     </row>
     <row r="4">
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>247.765137117802</v>
+        <v>247.7651371178</v>
       </c>
     </row>
     <row r="7">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.940212402634</v>
+        <v>11.940212402633</v>
       </c>
     </row>
     <row r="10">
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.202734730994</v>
+        <v>64.202734730996</v>
       </c>
     </row>
     <row r="19">
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.732558329871</v>
+        <v>28.732558329872</v>
       </c>
     </row>
     <row r="23">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.781509894239</v>
+        <v>56.781509894241</v>
       </c>
     </row>
     <row r="25">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>917.471782512015</v>
+        <v>917.47178251201</v>
       </c>
     </row>
     <row r="3">
@@ -6075,7 +6075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4441.365046780218</v>
+        <v>4441.365046780236</v>
       </c>
     </row>
     <row r="7">
@@ -6105,7 +6105,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>430.946679579672</v>
+        <v>430.946679579662</v>
       </c>
     </row>
     <row r="10">
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1057.567938518707</v>
+        <v>1057.567938518701</v>
       </c>
     </row>
     <row r="11">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.733254555291</v>
+        <v>147.733254555278</v>
       </c>
     </row>
     <row r="13">
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>329.900194784772</v>
+        <v>329.900194784767</v>
       </c>
     </row>
     <row r="16">
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.580709609815</v>
+        <v>61.580709609814</v>
       </c>
     </row>
     <row r="18">
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.685280137714</v>
+        <v>78.685280137715</v>
       </c>
     </row>
     <row r="24">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58.9743646842</v>
+        <v>58.974364684205</v>
       </c>
     </row>
     <row r="25">
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>425.077085427183</v>
+        <v>425.077085427176</v>
       </c>
     </row>
     <row r="26">
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291.778521220341</v>
+        <v>291.778521220337</v>
       </c>
     </row>
     <row r="27">
@@ -6285,7 +6285,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.566171999757</v>
+        <v>16.566171999759</v>
       </c>
     </row>
     <row r="28">
